--- a/Assets/Excel/Food.xlsx
+++ b/Assets/Excel/Food.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>//Remark</t>
   </si>
@@ -38,6 +38,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>iconUrl</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -47,10 +50,16 @@
     <t>萝卜</t>
   </si>
   <si>
+    <t>imgFood_carrot</t>
+  </si>
+  <si>
     <t>蝌蚪</t>
   </si>
   <si>
     <t>萝卜粥</t>
+  </si>
+  <si>
+    <t>imgFood_carrotCongee</t>
   </si>
   <si>
     <t>蝌蚪粥</t>
@@ -987,15 +996,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="10.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="22.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1003,28 +1013,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1032,15 +1051,18 @@
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2001</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1048,7 +1070,7 @@
         <v>2002</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1056,7 +1078,7 @@
         <v>2003</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Food.xlsx
+++ b/Assets/Excel/Food.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19220" windowHeight="11480"/>
+    <workbookView windowWidth="13650" windowHeight="7640"/>
   </bookViews>
   <sheets>
     <sheet name="Food" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>//Remark</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>萝卜蝌蚪粥</t>
+  </si>
+  <si>
+    <t>焦炭</t>
   </si>
 </sst>
 </file>
@@ -996,13 +999,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="10.8181818181818" customWidth="1"/>
     <col min="3" max="3" width="22.2727272727273" customWidth="1"/>
@@ -1081,6 +1084,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>9999</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Excel/Food.xlsx
+++ b/Assets/Excel/Food.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>//Remark</t>
   </si>
@@ -56,19 +56,49 @@
     <t>蝌蚪</t>
   </si>
   <si>
-    <t>萝卜粥</t>
-  </si>
-  <si>
-    <t>imgFood_carrotCongee</t>
-  </si>
-  <si>
-    <t>蝌蚪粥</t>
-  </si>
-  <si>
-    <t>萝卜蝌蚪粥</t>
+    <t>imgFood_tadpold</t>
+  </si>
+  <si>
+    <t>鱼</t>
+  </si>
+  <si>
+    <t>imgFood_fish</t>
+  </si>
+  <si>
+    <t>萝卜汤</t>
+  </si>
+  <si>
+    <t>imgFood_carrotSoup</t>
+  </si>
+  <si>
+    <t>蝌蚪药剂</t>
+  </si>
+  <si>
+    <t>imgFood_tadpoldPotion</t>
+  </si>
+  <si>
+    <t>鱼汤</t>
+  </si>
+  <si>
+    <t>imgFood_fishSoup</t>
+  </si>
+  <si>
+    <t>萝卜蝌蚪汤</t>
+  </si>
+  <si>
+    <t>imgFood_carrotTadpoldSoup</t>
+  </si>
+  <si>
+    <t>萝卜蝌蚪鱼汤</t>
+  </si>
+  <si>
+    <t>imgFood_carrotTadpoldFishSoup</t>
   </si>
   <si>
     <t>焦炭</t>
+  </si>
+  <si>
+    <t>imgFood_shit</t>
   </si>
 </sst>
 </file>
@@ -999,16 +1029,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="10.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="22.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="14.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="33.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1049,47 +1079,92 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
+        <v>1003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
         <v>2001</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+    <row r="8" spans="1:3">
+      <c r="A8">
         <v>2002</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+    <row r="9" spans="1:3">
+      <c r="A9">
         <v>2003</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>3012</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>4123</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
         <v>9999</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
